--- a/заказы/статистика филиалы/2024/08,24/01,08,24 ПОКОМ ЗПФ/дв 01,08,24 лгрсч пок зпф.xlsx
+++ b/заказы/статистика филиалы/2024/08,24/01,08,24 ПОКОМ ЗПФ/дв 01,08,24 лгрсч пок зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\01,08,24 ПОКОМ ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\08,24\01,08,24 ПОКОМ ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7CF540-1BB2-4890-BEA9-BE9A07157971}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467CE856-9C3D-445A-A99A-6A03376BDD50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="137">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -452,6 +452,9 @@
   </si>
   <si>
     <t>отсутствует в бланке</t>
+  </si>
+  <si>
+    <t>ТК Вояж (акция август)</t>
   </si>
 </sst>
 </file>
@@ -934,10 +937,10 @@
   <dimension ref="A1:AW499"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="S35" sqref="S35"/>
+      <selection pane="bottomRight" activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6002,7 +6005,9 @@
       <c r="Z47" s="1">
         <v>35.799999999999997</v>
       </c>
-      <c r="AA47" s="1"/>
+      <c r="AA47" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="AB47" s="1">
         <f t="shared" si="6"/>
         <v>172.07999999999996</v>
@@ -6341,7 +6346,9 @@
       <c r="Z50" s="1">
         <v>50.6</v>
       </c>
-      <c r="AA50" s="1"/>
+      <c r="AA50" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="AB50" s="1">
         <f t="shared" si="6"/>
         <v>266.57999999999993</v>
@@ -9640,7 +9647,9 @@
       <c r="Z80" s="1">
         <v>133.80000000000001</v>
       </c>
-      <c r="AA80" s="1"/>
+      <c r="AA80" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="AB80" s="1">
         <f t="shared" si="22"/>
         <v>140.19999999999993</v>
@@ -9754,7 +9763,9 @@
       <c r="Z81" s="1">
         <v>125.8</v>
       </c>
-      <c r="AA81" s="1"/>
+      <c r="AA81" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="AB81" s="1">
         <f t="shared" si="22"/>
         <v>148.39999999999998</v>
